--- a/saida_teste/lista_conflitos_disciplinas.xlsx
+++ b/saida_teste/lista_conflitos_disciplinas.xlsx
@@ -413,183 +413,272 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Paisagismo</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Topografia</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OAEs</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Topografia</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dispositivos de Segurança</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pavimentação</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Topografia</t>
+          <t>Contenções</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Iluminação</t>
+          <t>Drenagem</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Topografia</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sinalização Vertical</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Paisagismo</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Contenções</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paisagismo</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Paisagismo</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>OAEs</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paisagismo</t>
+          <t>Contenções</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -598,97 +687,160 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paisagismo</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pavimentação</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Paisagismo</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Iluminação</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paisagismo</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CONCRETO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Contenções</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Drenagem</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Contenções</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>OAEs</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Dispositivos de Segurança</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -699,82 +851,115 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pavimentação</t>
+          <t>Sinalização Vertical</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Contenções</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Iluminação</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>OAEs</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Dispositivos de Segurança</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Base de CAD</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Drenagem</t>
+          <t>Topografia</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pavimentação</t>
+          <t>Topografia</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -784,184 +969,3359 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Iluminação</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
+      <c r="C50" t="n">
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_ESCADA</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>OAEs</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dispositivos de Segurança</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OAEs</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pavimentação</t>
+          <t>H-CRPP</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_ENTRADA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OAEs</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Iluminação</t>
+          <t>H-TUBO-PEAD</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>OAEs</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sinalização Vertical</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>H-BOCA_BUEIRO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dispositivos de Segurança</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pavimentação</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_ESCADA</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dispositivos de Segurança</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Iluminação</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>H-TUBO_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dispositivos de Segurança</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sinalização Vertical</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H-VALETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pavimentação</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Iluminação</t>
+          <t>H-MODULO B</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_RAPIDO</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Pavimentação</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sinalização Vertical</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>H-MODULO A</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>H-GARGULA</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>H-VALETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>H-TAMPA-CEGA</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>H-BOCA_GALERIA</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>H-MODULO C</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>H_TRANSICAO_TRAPEZ</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>H_TRANSICAO_TRAPEZ</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>H_TRANSICAO_TRAPEZ</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>H-SARJETA_GRAMA</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Meio_Fio</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>H-TUBO_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>H-BOCA_BUEIRO</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>H-DISSIPADOR</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>H-DISSIPADOR</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Meio_Fio</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>H-MODULO D</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>H-TUBO DE QUEDA</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Nível 1</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>sinC_DISPOSITIVOS_BIM</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>sinC_BAR.CONCRETO_BIM</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>sinC_GUARDA_CORPO_BIM</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>sinC_TRANSICAO_BIM</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>sinC_BAR.CONCRETO_BIM</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>sinC_OBRAS_BIM(temp)</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>B_CORRIDA</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>REV_PRIMARIO</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>COLCHÃO DRENANTE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Cx. CINASITA</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ARVORE_ISOLADA</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ARVORE_ISOLADA</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ARVORE_ISOLADA</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ARVORE_ISOLADA</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CONCRETO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>LASTRO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>REV_PRIMARIO</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ARVORE_ISOLADA</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ARVORE_ISOLADA</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>H-BUEIRO_CELULAR</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_ENTRADA</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>sinC_BAR.CONCRETO_BIM</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>H-GARGULA</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>sinC_GUARDA_CORPO_BIM</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>sinC_OBRAS_BIM(temp)</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>COLCHÃO DRENANTE</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>H-BUEIRO_CELULAR</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>B_CORRIDA</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>REV_PRIMARIO</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>LASTRO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>COLCHÃO DRENANTE</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>H-TUBO_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>H-GARGULA</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LASTRO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>CONCRETO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>H-GARGULA</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>CONCRETO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_ENTRADA</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>B_CORRIDA</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>H-GARGULA</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>H-SARJETA_GRAMA</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>H-SARJETA_GRAMA</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>REV_PRIMARIO</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_ENTRADA</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>H-DESCIDA_ENTRADA</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>H-SARJETA_GRAMA</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>H-GARGULA</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>H-CAIXA_COLETORA</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>H-MODULO D</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>H-MODULO D</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C219" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>H-TUBO_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Base de CAD</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Nível 1</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>sinC_DISPOSITIVOS_BIM</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>sinC_DEFENSAS_BIM</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>sinC_TRANSICAO_BIM</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>sinC_DISPOSITIVOS_BIM</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>sinC_BAR.CONCRETO_BIM</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Nível 1</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Nível 1</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>sinC_BAR.CONCRETO_BIM</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>LASTRO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>CONCRETO_PASSEIO</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>B_CORRIDA</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>CAUQ</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>COLCHÃO DRENANTE</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Base de CAD</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>M_SECO</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Base de CAD</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Base de CAD</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Base de CAD</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Disciplinas</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A167:B167"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/saida_teste/lista_conflitos_disciplinas.xlsx
+++ b/saida_teste/lista_conflitos_disciplinas.xlsx
@@ -26,15 +26,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8E4BC"/>
+        <bgColor rgb="00D8E4BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCE6F1"/>
+        <bgColor rgb="00DCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCC0DA"/>
+        <bgColor rgb="00CCC0DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDE9D9"/>
+        <bgColor rgb="00FDE9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +66,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,87 +459,96 @@
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1410</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1410</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Level 0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>T-HM-TERRENO</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1353</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -515,11 +559,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>1353</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>cd380039</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -530,11 +584,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>cd386309</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -545,65 +609,88 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>ARVORE_ISOLADA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>49</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>cd3810058</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>cd3823223</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Level 0</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>H-CAIXA_COLETORA</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -614,11 +701,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>cd3810751</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -629,146 +726,184 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>59</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>cd3852457</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>cd3855444</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Dispositivos de Segurança</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>cd387090</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Pavimentação</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Level 0</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CONCRETO_PASSEIO</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>6</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -779,12 +914,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>6</v>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>cd3813673</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -794,11 +939,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>cd3813674</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -809,11 +964,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>93</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>cd3814499</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -824,200 +989,251 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>cd3861790</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Level 0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>cd3861791</t>
+        </is>
+      </c>
+    </row>
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>cd3864473</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Contenções</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Iluminação</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Contenções</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>cd3815630</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>H-DESCIDA_ESCADA</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>103</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1028,11 +1244,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>cd380040</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1043,11 +1269,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v>107</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>cd380100</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1058,11 +1294,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H-CRPP</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>cd380116</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1073,11 +1319,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>H-CRPP</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>cd380184</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1088,11 +1344,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>H-TUBO-PEAD</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>cd380231</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1103,41 +1369,71 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-TUBO-PEAD</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>cd380371</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>cd383917</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>cd385628</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1148,41 +1444,71 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>cd385893</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>cd386530</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>cd389196</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1193,11 +1519,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>cd3810192</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1208,41 +1544,71 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>cd3810519</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>cd3810630</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>H-MODULO B</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>cd3811378</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1253,41 +1619,71 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>H-MODULO B</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>cd3812564</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>cd3815460</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H-MODULO A</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>cd3815928</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1298,41 +1694,71 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>H-MODULO A</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>cd3816073</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>cd3816106</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>H-TAMPA-CEGA</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>cd3817401</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1343,12 +1769,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>H-HZ-CAIXA_EXISTENTE</t>
+          <t>H-TAMPA-CEGA</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>cd3817625</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1358,11 +1794,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>H-BOCA_GALERIA</t>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>cd3817960</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1373,26 +1819,46 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>H-MODULO C</t>
+          <t>H-BOCA_GALERIA</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>cd3818128</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-MODULO C</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>cd3818189</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1403,17 +1869,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_TRAPEZ</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>cd3825019</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1424,11 +1900,21 @@
       <c r="C79" t="n">
         <v>1</v>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>cd3827045</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1439,21 +1925,41 @@
       <c r="C80" t="n">
         <v>1</v>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>cd3827818</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>cd3828373</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1463,62 +1969,102 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>cd3834098</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>cd3841112</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>cd3841213</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>cd3846172</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1527,38 +2073,68 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>cd3846841</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>cd3861763</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>H-MODULO D</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>cd3862638</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1568,65 +2144,88 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>H-TUBO DE QUEDA</t>
+          <t>H-MODULO D</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>cd3863838</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>H-TUBO DE QUEDA</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>cd3866156</t>
+        </is>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="B92" s="2" t="n"/>
+      <c r="C92" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>OAEs</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Nível 2</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>11</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="n"/>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -1637,71 +2236,94 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>11</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>cd380044</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>Nível 1</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C96" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>cd380171</t>
+        </is>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="B98" s="2" t="n"/>
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Dispositivos de Segurança</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>3064</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3064</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>sinC_DEFENSAS_BIM</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>4</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="n"/>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1710,13 +2332,23 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>cd380069</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1725,7 +2357,17 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3005</v>
+        <v>6</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>cd380118</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -1736,11 +2378,21 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>32</v>
+        <v>3005</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>cd385408</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -1751,11 +2403,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>cd388099</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -1766,11 +2428,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>cd3816754</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -1781,95 +2453,138 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>cd3854754</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>cd3857810</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>cd3858250</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>T-HM-TERRENO</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>sinC_OBRAS_BIM(temp)</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>cd3865148</t>
+        </is>
+      </c>
+    </row>
+    <row r="110"/>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="B111" s="2" t="n"/>
+      <c r="C111" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Pavimentação</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>1326</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1326</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>P-IMPERMEABILIZANTE</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>34</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="n"/>
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -1880,11 +2595,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>cd380145</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -1895,11 +2620,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>cd380146</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -1910,11 +2645,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>100</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>cd380319</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -1925,12 +2670,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>13</v>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>cd380320</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1940,11 +2695,21 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>cd383667</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -1955,11 +2720,21 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>cd384728</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -1970,11 +2745,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>cd385128</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -1985,11 +2770,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>572</v>
+        <v>70</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>cd386420</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -2000,11 +2795,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>210</v>
+        <v>572</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>cd3810323</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -2015,11 +2820,21 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>71</v>
+        <v>210</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>cd3815666</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -2030,26 +2845,46 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cx. CINASITA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>cd3816316</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>Cx. CINASITA</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>cd3817031</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -2060,26 +2895,46 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>cd3819229</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>cd3819230</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -2090,11 +2945,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>cd3820824</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -2105,11 +2970,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>cd3820930</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -2120,32 +2995,52 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>cd3821484</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>cd3821687</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2154,7 +3049,17 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>cd3826026</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -2165,11 +3070,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>cd3826720</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -2180,17 +3095,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>cd3827587</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2199,38 +3124,68 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>cd3828665</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>cd3829702</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>6</v>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>cd3829921</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2240,11 +3195,21 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>cd3835469</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -2255,26 +3220,46 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>cd3835499</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>cd3835685</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -2285,146 +3270,219 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>cd3840685</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>cd3840686</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>cd3851049</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>cd3851979</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>cd3858389</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>cd3882000</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>T-BASE_GRANULAR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>cd3886719</t>
+        </is>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="B149" s="2" t="n"/>
+      <c r="C149" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Topografia</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>290</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Topografia</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>sinC_VERTICAL_BIM</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>278</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B151" s="4" t="n"/>
+      <c r="C151" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2433,13 +3491,23 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>278</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>cd382813</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2448,163 +3516,202 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>cd382814</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>T-PISTA_PAVIMENTADA</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>4</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>cd382815</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="C155" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>cd3854970</t>
+        </is>
+      </c>
+    </row>
+    <row r="156"/>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="B157" s="2" t="n"/>
+      <c r="C157" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C158" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="159"/>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="B160" s="2" t="n"/>
+      <c r="C160" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="C161" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="162"/>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="B163" s="2" t="n"/>
+      <c r="C163" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C164" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="165"/>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="B166" s="2" t="n"/>
+      <c r="C166" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Dispositivos de Segurança</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>579</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>579</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>sinC_DEFENSAS_BIM</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>563</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="n"/>
+      <c r="C168" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>H-BUEIRO_CELULAR</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2613,13 +3720,23 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>563</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>cd380830</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>H-BUEIRO_CELULAR</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2628,121 +3745,184 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>cd3813693</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>cd3817279</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>cd3823235</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>cd3847039</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>H-SARJETA_CONCRETO</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>sinC_OBRAS_BIM(temp)</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>cd3859755</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="C175" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>cd3860924</t>
+        </is>
+      </c>
+    </row>
+    <row r="176"/>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="B177" s="2" t="n"/>
+      <c r="C177" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Pavimentação</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>241</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>CFT</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>3</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="n"/>
+      <c r="C179" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -2753,11 +3933,21 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>cd380121</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -2768,11 +3958,21 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>cd380123</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -2783,11 +3983,21 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>cd380336</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -2798,41 +4008,71 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>cd380337</t>
+        </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>H-BUEIRO_CELULAR</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>cd382214</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-BUEIRO_CELULAR</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>cd384616</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -2843,11 +4083,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>cd388675</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -2858,146 +4108,246 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>cd388676</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>cd3815201</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>cd3816225</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>H-HZ-CAIXA_EXISTENTE</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>cd3816617</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>3</v>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>cd3817073</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>cd3820346</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>cd3823811</t>
+        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>cd3825444</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>H-HZ-CAIXA_EXISTENTE</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>cd3827159</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>cd3828024</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -3008,11 +4358,21 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>cd3835319</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -3023,56 +4383,96 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>cd3836189</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>cd3836190</t>
+        </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>cd3837794</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>cd3840798</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -3083,17 +4483,27 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>cd3841459</t>
+        </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3102,37 +4512,67 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>cd3850482</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>cd3851873</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>cd3852995</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -3143,26 +4583,46 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>cd3853022</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>cd3854700</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -3173,47 +4633,77 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>cd3854741</t>
+        </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>cd3855853</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>cd3856718</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3222,13 +4712,23 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>cd3857295</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3237,13 +4737,23 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>cd3858323</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3254,11 +4764,21 @@
       <c r="C213" t="n">
         <v>1</v>
       </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>cd3859694</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3267,22 +4787,42 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>cd3860144</t>
+        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>H-MODULO D</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>cd3861972</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -3293,216 +4833,277 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>cd3863910</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>H-MODULO D</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>cd3876369</t>
+        </is>
+      </c>
+    </row>
+    <row r="218"/>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="B219" s="2" t="n"/>
+      <c r="C219" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B221" s="4" t="n"/>
+      <c r="C221" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C221" t="n">
+      <c r="C222" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>cd3818660</t>
+        </is>
+      </c>
+    </row>
+    <row r="223"/>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="B224" s="2" t="n"/>
+      <c r="C224" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Drenagem</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Iluminação</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Drenagem</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B226" s="4" t="n"/>
+      <c r="C226" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
           <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C226" t="n">
+      <c r="C227" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>cd3888825</t>
+        </is>
+      </c>
+    </row>
+    <row r="228"/>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="B229" s="2" t="n"/>
+      <c r="C229" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="C229" t="n">
+      <c r="C230" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="231"/>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="B232" s="2" t="n"/>
+      <c r="C232" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>OAEs</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Dispositivos de Segurança</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Nível 1</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>1</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B234" s="4" t="n"/>
+      <c r="C234" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>cd3858783</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3512,11 +5113,21 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>cd3861121</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -3527,11 +5138,21 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>cd3863548</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -3542,65 +5163,88 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>cd3863682</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Nível 2</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>sinC_BAR.CONCRETO_BIM</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>cd3876623</t>
+        </is>
+      </c>
+    </row>
+    <row r="240"/>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="B241" s="2" t="n"/>
+      <c r="C241" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>OAEs</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Pavimentação</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>OAEs</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Nível 2</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>P-IMPERMEABILIZANTE</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>2</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B243" s="4" t="n"/>
+      <c r="C243" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -3611,26 +5255,46 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>cd382615</t>
+        </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>cd389216</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -3641,287 +5305,335 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
+          <t>P-IMPERMEABILIZANTE</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>3</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>cd3815103</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Nível 1</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C246" t="n">
+      <c r="C247" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>cd3829217</t>
+        </is>
+      </c>
+    </row>
+    <row r="248"/>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="B249" s="2" t="n"/>
+      <c r="C249" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C249" t="n">
+      <c r="C250" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
+    <row r="251"/>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="B252" s="2" t="n"/>
+      <c r="C252" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
+    <row r="253">
+      <c r="A253" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C252" t="n">
+      <c r="C253" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+    <row r="254"/>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="B255" s="2" t="n"/>
+      <c r="C255" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="C255" t="n">
+      <c r="C256" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+    <row r="257"/>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="B258" s="2" t="n"/>
+      <c r="C258" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C258" t="n">
+      <c r="C259" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+    <row r="260"/>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="B261" s="2" t="n"/>
+      <c r="C261" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Dispositivos de Segurança</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Dispositivos de Segurança</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B263" s="4" t="n"/>
+      <c r="C263" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
           <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C263" t="n">
+      <c r="C264" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>cd3812790</t>
+        </is>
+      </c>
+    </row>
+    <row r="265"/>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="B266" s="2" t="n"/>
+      <c r="C266" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C266" t="n">
+      <c r="C267" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
+    <row r="268"/>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="B269" s="2" t="n"/>
+      <c r="C269" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="270">
+      <c r="A270" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C269" t="n">
+      <c r="C270" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
+    <row r="271"/>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="B272" s="2" t="n"/>
+      <c r="C272" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Pavimentação</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Sinalização Vertical</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Sinalização Vertical</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>M_SECO</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>sinC_VERTICAL_BIM</t>
-        </is>
-      </c>
-      <c r="C274" t="n">
-        <v>8</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B274" s="4" t="n"/>
+      <c r="C274" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3930,13 +5642,23 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>cd3818836</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3945,13 +5667,23 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>cd3820514</t>
+        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3960,13 +5692,23 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>cd3820515</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3975,13 +5717,23 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>cd3820552</t>
+        </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3990,13 +5742,23 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>cd3820553</t>
+        </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4007,11 +5769,21 @@
       <c r="C280" t="n">
         <v>3</v>
       </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>cd3835669</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4020,13 +5792,23 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>cd3835670</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4035,13 +5817,23 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>cd3840388</t>
+        </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4050,13 +5842,23 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>cd3849154</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4065,82 +5867,115 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>cd3851953</t>
+        </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
+          <t>CFT</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>sinC_VERTICAL_BIM</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>3</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>cd3856843</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
           <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C285" t="n">
+      <c r="C286" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>cd3864584</t>
+        </is>
+      </c>
+    </row>
+    <row r="287"/>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="B288" s="2" t="n"/>
+      <c r="C288" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Pavimentação</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Iluminação</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Layers</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Contagem</t>
-        </is>
+          <t>Pavimentação</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Iluminação</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>CFT</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Base de CAD</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>9</v>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="B290" s="4" t="n"/>
+      <c r="C290" s="5" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4149,13 +5984,23 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>cd3817440</t>
+        </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4164,13 +6009,23 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>cd3817967</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4181,146 +6036,187 @@
       <c r="C293" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>cd3862581</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Base de CAD</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>cd3862582</t>
+        </is>
+      </c>
+    </row>
+    <row r="295"/>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="B296" s="2" t="n"/>
+      <c r="C296" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
+    <row r="297">
+      <c r="A297" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B297" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C296" t="n">
+      <c r="C297" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
+    <row r="298"/>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="B299" s="2" t="n"/>
+      <c r="C299" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
+    <row r="300">
+      <c r="A300" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B300" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C299" t="n">
+      <c r="C300" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
+    <row r="301"/>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
         <is>
           <t>Disciplinas</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
+      <c r="B302" s="2" t="n"/>
+      <c r="C302" s="3" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
+    <row r="303">
+      <c r="A303" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="B303" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C302" t="n">
+      <c r="C303" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A261:B261"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/saida_teste/lista_conflitos_disciplinas.xlsx
+++ b/saida_teste/lista_conflitos_disciplinas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -78,11 +78,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,21 +493,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
     </row>
     <row r="4"/>
     <row r="5">
@@ -522,130 +528,155 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>1410</v>
       </c>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n"/>
+      <c r="B7" s="2" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>1353</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>cd380039</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>cd386309</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>cd3810058</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>cd3823223</t>
         </is>
@@ -664,105 +695,129 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>68</v>
       </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n"/>
+      <c r="B15" s="2" t="n"/>
       <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>cd3810751</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>cd3852457</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>cd3855444</t>
         </is>
@@ -781,21 +836,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
     </row>
     <row r="22"/>
     <row r="23">
@@ -810,55 +871,77 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
         <v>19</v>
       </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>cd387090</t>
         </is>
@@ -877,155 +960,181 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
         <v>119</v>
       </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n"/>
+      <c r="B30" s="2" t="n"/>
       <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>cd3813673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>LASTRO_PASSEIO</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>cd3813674</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>cd3814499</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>cd3861790</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>cd3861791</t>
         </is>
@@ -1044,55 +1153,77 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n"/>
+      <c r="B39" s="2" t="n"/>
       <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>cd3864473</t>
         </is>
@@ -1111,55 +1242,77 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>Contenções</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>Level 0</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>cd3815630</t>
         </is>
@@ -1178,21 +1331,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
     </row>
     <row r="49"/>
     <row r="50">
@@ -1207,980 +1366,1039 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
         <v>436</v>
       </c>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>cd380040</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>cd380100</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>cd380116</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>H-CRPP</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>cd380184</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>cd380231</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>H-TUBO-PEAD</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>cd380371</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>cd383917</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="inlineStr">
         <is>
           <t>cd385628</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>cd385893</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>H-DISSIPADOR</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>cd386530</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>cd389196</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>H-TE_VALETA</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>cd3810192</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="inlineStr">
         <is>
           <t>cd3810519</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>cd3810630</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="inlineStr">
         <is>
           <t>cd3811378</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>H-MODULO B</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>cd3812564</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>cd3815460</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>cd3815928</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>H-MODULO A</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="inlineStr">
         <is>
           <t>cd3816073</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>H-GARGULA</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="inlineStr">
         <is>
           <t>cd3816106</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>cd3817401</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>H-TAMPA-CEGA</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="2" t="inlineStr">
         <is>
           <t>cd3817625</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="inlineStr">
         <is>
           <t>cd3817960</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>H-BOCA_GALERIA</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>cd3818128</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>H-MODULO C</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="E77" s="2" t="n"/>
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>cd3818189</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>cd3825019</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>cd3827045</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>cd3827818</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>cd3828373</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>cd3834098</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Meio_Fio</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>cd3841112</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="inlineStr">
         <is>
           <t>cd3841213</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="inlineStr">
         <is>
           <t>cd3846172</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>H-DISSIPADOR</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>cd3846841</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>H-DISSIPADOR</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="inlineStr">
         <is>
           <t>cd3861763</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Meio_Fio</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>cd3862638</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>H-MODULO D</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="inlineStr">
         <is>
           <t>cd3863838</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>H-TUBO DE QUEDA</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="inlineStr">
         <is>
           <t>cd3866156</t>
         </is>
@@ -2199,80 +2417,103 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D92" s="2" t="n"/>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
         <v>23</v>
       </c>
+      <c r="D93" s="2" t="n"/>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n"/>
+      <c r="B94" s="2" t="n"/>
       <c r="C94" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Nível 2</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>cd380044</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>Nível 1</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>cd380171</t>
         </is>
@@ -2291,255 +2532,285 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D98" s="2" t="n"/>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="2" t="n">
         <v>3064</v>
       </c>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>cd380069</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n"/>
+      <c r="F102" s="2" t="inlineStr">
         <is>
           <t>cd380118</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="2" t="n">
         <v>3005</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="inlineStr">
         <is>
           <t>cd385408</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="inlineStr">
         <is>
           <t>cd388099</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>cd3816754</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>cd3854754</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>cd3857810</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>cd3858250</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>cd3865148</t>
         </is>
@@ -2558,880 +2829,935 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D111" s="2" t="n"/>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="2" t="n">
         <v>1326</v>
       </c>
+      <c r="D112" s="2" t="n"/>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="inlineStr">
         <is>
           <t>cd380145</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>cd380146</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="inlineStr">
         <is>
           <t>cd380319</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="inlineStr">
         <is>
           <t>cd380320</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>B_CORRIDA</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="inlineStr">
         <is>
           <t>cd383667</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>REV_PRIMARIO</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="inlineStr">
         <is>
           <t>cd384728</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>cd385128</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="inlineStr">
         <is>
           <t>cd386420</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>BGMC</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="2" t="n">
         <v>572</v>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="inlineStr">
         <is>
           <t>cd3810323</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>cd3815666</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>cd3816316</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Cx. CINASITA</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="inlineStr">
         <is>
           <t>cd3817031</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="inlineStr">
         <is>
           <t>cd3819229</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>cd3819230</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n"/>
+      <c r="F128" s="2" t="inlineStr">
         <is>
           <t>cd3820824</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n"/>
+      <c r="F129" s="2" t="inlineStr">
         <is>
           <t>cd3820930</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n"/>
+      <c r="F130" s="2" t="inlineStr">
         <is>
           <t>cd3821484</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="inlineStr">
         <is>
           <t>cd3821687</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n"/>
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>cd3826026</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n"/>
+      <c r="F133" s="2" t="inlineStr">
         <is>
           <t>cd3826720</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n"/>
+      <c r="F134" s="2" t="inlineStr">
         <is>
           <t>cd3827587</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n"/>
+      <c r="F135" s="2" t="inlineStr">
         <is>
           <t>cd3828665</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n"/>
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>cd3829702</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n"/>
+      <c r="F137" s="2" t="inlineStr">
         <is>
           <t>cd3829921</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n"/>
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>cd3835469</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n"/>
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>cd3835499</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n"/>
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>cd3835685</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n"/>
+      <c r="F141" s="2" t="inlineStr">
         <is>
           <t>cd3840685</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n"/>
+      <c r="F142" s="2" t="inlineStr">
         <is>
           <t>cd3840686</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>LASTRO_PASSEIO</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n"/>
+      <c r="F143" s="2" t="inlineStr">
         <is>
           <t>cd3851049</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>REV_PRIMARIO</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n"/>
+      <c r="F144" s="2" t="inlineStr">
         <is>
           <t>cd3851979</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>BGMC</t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n"/>
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>cd3858389</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="2" t="inlineStr">
         <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n"/>
+      <c r="F146" s="2" t="inlineStr">
         <is>
           <t>cd3882000</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n"/>
+      <c r="F147" s="2" t="inlineStr">
         <is>
           <t>cd3886719</t>
         </is>
@@ -3450,130 +3776,155 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D149" s="2" t="n"/>
+      <c r="E149" s="2" t="n"/>
+      <c r="F149" s="2" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="2" t="n">
         <v>290</v>
       </c>
+      <c r="D150" s="2" t="n"/>
+      <c r="E150" s="2" t="n"/>
+      <c r="F150" s="2" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
         <is>
           <t>T-HM-TERRENO</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n"/>
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>cd382813</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="2" t="inlineStr">
         <is>
           <t>T-BASE_GRANULAR</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n"/>
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>cd382814</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="2" t="inlineStr">
         <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n"/>
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>cd382815</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="2" t="inlineStr">
         <is>
           <t>ARVORE_ISOLADA</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n"/>
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>cd3854970</t>
         </is>
@@ -3592,21 +3943,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D157" s="2" t="n"/>
+      <c r="E157" s="2" t="n"/>
+      <c r="F157" s="2" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="2" t="inlineStr">
         <is>
           <t>Topografia</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D158" s="2" t="n"/>
+      <c r="E158" s="2" t="n"/>
+      <c r="F158" s="2" t="n"/>
     </row>
     <row r="159"/>
     <row r="160">
@@ -3621,21 +3978,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D160" s="2" t="n"/>
+      <c r="E160" s="2" t="n"/>
+      <c r="F160" s="2" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D161" s="2" t="n"/>
+      <c r="E161" s="2" t="n"/>
+      <c r="F161" s="2" t="n"/>
     </row>
     <row r="162"/>
     <row r="163">
@@ -3650,21 +4013,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D163" s="2" t="n"/>
+      <c r="E163" s="2" t="n"/>
+      <c r="F163" s="2" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D164" s="2" t="n"/>
+      <c r="E164" s="2" t="n"/>
+      <c r="F164" s="2" t="n"/>
     </row>
     <row r="165"/>
     <row r="166">
@@ -3679,205 +4048,233 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D166" s="2" t="n"/>
+      <c r="E166" s="2" t="n"/>
+      <c r="F166" s="2" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="2" t="n">
         <v>579</v>
       </c>
+      <c r="D167" s="2" t="n"/>
+      <c r="E167" s="2" t="n"/>
+      <c r="F167" s="2" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n"/>
+      <c r="B168" s="2" t="n"/>
       <c r="C168" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="2" t="n">
         <v>563</v>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D169" s="2" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="E169" s="2" t="n"/>
+      <c r="F169" s="2" t="inlineStr">
         <is>
           <t>cd380830</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>H-BUEIRO_CELULAR</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n"/>
+      <c r="F170" s="2" t="inlineStr">
         <is>
           <t>cd3813693</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n"/>
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>cd3817279</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n"/>
+      <c r="F172" s="2" t="inlineStr">
         <is>
           <t>cd3823235</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
         <is>
           <t>H-GARGULA</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n"/>
+      <c r="F173" s="2" t="inlineStr">
         <is>
           <t>cd3847039</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n"/>
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>cd3859755</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="A175" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n"/>
+      <c r="F175" s="2" t="inlineStr">
         <is>
           <t>cd3860924</t>
         </is>
@@ -3896,980 +4293,1039 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D177" s="2" t="n"/>
+      <c r="E177" s="2" t="n"/>
+      <c r="F177" s="2" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" s="2" t="n">
         <v>241</v>
       </c>
+      <c r="D178" s="2" t="n"/>
+      <c r="E178" s="2" t="n"/>
+      <c r="F178" s="2" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n"/>
+      <c r="B179" s="2" t="n"/>
       <c r="C179" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n"/>
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>cd380121</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n"/>
+      <c r="F181" s="2" t="inlineStr">
         <is>
           <t>cd380123</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n"/>
+      <c r="F182" s="2" t="inlineStr">
         <is>
           <t>cd380336</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n"/>
+      <c r="F183" s="2" t="inlineStr">
         <is>
           <t>cd380337</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n"/>
+      <c r="F184" s="2" t="inlineStr">
         <is>
           <t>cd382214</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="2" t="inlineStr">
         <is>
           <t>H-BUEIRO_CELULAR</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n"/>
+      <c r="F185" s="2" t="inlineStr">
         <is>
           <t>cd384616</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>BGMC</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n"/>
+      <c r="F186" s="2" t="inlineStr">
         <is>
           <t>cd388675</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="A187" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n"/>
+      <c r="F187" s="2" t="inlineStr">
         <is>
           <t>cd388676</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>B_CORRIDA</t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n"/>
+      <c r="F188" s="2" t="inlineStr">
         <is>
           <t>cd3815201</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n"/>
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>cd3816225</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>REV_PRIMARIO</t>
         </is>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n"/>
+      <c r="F190" s="2" t="inlineStr">
         <is>
           <t>cd3816617</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="A191" s="2" t="inlineStr">
         <is>
           <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="2" t="inlineStr">
         <is>
           <t>LASTRO_PASSEIO</t>
         </is>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n"/>
+      <c r="F191" s="2" t="inlineStr">
         <is>
           <t>cd3817073</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="A192" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="2" t="inlineStr">
         <is>
           <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n"/>
+      <c r="F192" s="2" t="inlineStr">
         <is>
           <t>cd3820346</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="2" t="inlineStr">
         <is>
           <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C193" t="n">
+      <c r="C193" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n"/>
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>cd3823811</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="2" t="inlineStr">
         <is>
           <t>H-GARGULA</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>LASTRO_PASSEIO</t>
         </is>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n"/>
+      <c r="F194" s="2" t="inlineStr">
         <is>
           <t>cd3825444</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n"/>
+      <c r="F195" s="2" t="inlineStr">
         <is>
           <t>cd3827159</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="2" t="inlineStr">
         <is>
           <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
-      <c r="C196" t="n">
+      <c r="C196" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n"/>
+      <c r="F196" s="2" t="inlineStr">
         <is>
           <t>cd3828024</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n"/>
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>cd3835319</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n"/>
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>cd3836189</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n"/>
+      <c r="F199" s="2" t="inlineStr">
         <is>
           <t>cd3836190</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="2" t="inlineStr">
         <is>
           <t>H-GARGULA</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n"/>
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>cd3837794</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n"/>
+      <c r="F201" s="2" t="inlineStr">
         <is>
           <t>cd3840798</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="A202" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>B_CORRIDA</t>
         </is>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n"/>
+      <c r="F202" s="2" t="inlineStr">
         <is>
           <t>cd3841459</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="A203" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n"/>
+      <c r="F203" s="2" t="inlineStr">
         <is>
           <t>cd3850482</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" s="2" t="inlineStr">
         <is>
           <t>H-GARGULA</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n"/>
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>cd3851873</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="A205" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n"/>
+      <c r="F205" s="2" t="inlineStr">
         <is>
           <t>cd3852995</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n"/>
+      <c r="F206" s="2" t="inlineStr">
         <is>
           <t>cd3853022</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n"/>
+      <c r="F207" s="2" t="inlineStr">
         <is>
           <t>cd3854700</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="A208" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>BGMC</t>
         </is>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n"/>
+      <c r="F208" s="2" t="inlineStr">
         <is>
           <t>cd3854741</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>REV_PRIMARIO</t>
         </is>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n"/>
+      <c r="F209" s="2" t="inlineStr">
         <is>
           <t>cd3855853</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n"/>
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>cd3856718</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n"/>
+      <c r="F211" s="2" t="inlineStr">
         <is>
           <t>cd3857295</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="A212" s="2" t="inlineStr">
         <is>
           <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n"/>
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>cd3858323</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="A213" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n"/>
+      <c r="F213" s="2" t="inlineStr">
         <is>
           <t>cd3859694</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="2" t="inlineStr">
         <is>
           <t>H-GARGULA</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n"/>
+      <c r="F214" s="2" t="inlineStr">
         <is>
           <t>cd3860144</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="2" t="inlineStr">
         <is>
           <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n"/>
+      <c r="F215" s="2" t="inlineStr">
         <is>
           <t>cd3861972</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="2" t="inlineStr">
         <is>
           <t>H-MODULO D</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="C216" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n"/>
+      <c r="F216" s="2" t="inlineStr">
         <is>
           <t>cd3863910</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A217" s="2" t="inlineStr">
         <is>
           <t>H-MODULO D</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>BGMC</t>
         </is>
       </c>
-      <c r="C217" t="n">
+      <c r="C217" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n"/>
+      <c r="F217" s="2" t="inlineStr">
         <is>
           <t>cd3876369</t>
         </is>
@@ -4888,55 +5344,77 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D219" s="2" t="n"/>
+      <c r="E219" s="2" t="n"/>
+      <c r="F219" s="2" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="A220" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" s="2" t="n">
         <v>21</v>
       </c>
+      <c r="D220" s="2" t="n"/>
+      <c r="E220" s="2" t="n"/>
+      <c r="F220" s="2" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="A221" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n"/>
+      <c r="B221" s="2" t="n"/>
       <c r="C221" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="A222" s="2" t="inlineStr">
         <is>
           <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C222" t="n">
+      <c r="C222" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n"/>
+      <c r="F222" s="2" t="inlineStr">
         <is>
           <t>cd3818660</t>
         </is>
@@ -4955,55 +5433,77 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D224" s="2" t="n"/>
+      <c r="E224" s="2" t="n"/>
+      <c r="F224" s="2" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="A225" s="2" t="inlineStr">
         <is>
           <t>Drenagem</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C225" t="n">
+      <c r="C225" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D225" s="2" t="n"/>
+      <c r="E225" s="2" t="n"/>
+      <c r="F225" s="2" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="A226" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n"/>
+      <c r="B226" s="2" t="n"/>
       <c r="C226" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="A227" s="2" t="inlineStr">
         <is>
           <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="C227" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n"/>
+      <c r="F227" s="2" t="inlineStr">
         <is>
           <t>cd3888825</t>
         </is>
@@ -5022,21 +5522,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D229" s="2" t="n"/>
+      <c r="E229" s="2" t="n"/>
+      <c r="F229" s="2" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="C230" t="n">
+      <c r="C230" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D230" s="2" t="n"/>
+      <c r="E230" s="2" t="n"/>
+      <c r="F230" s="2" t="n"/>
     </row>
     <row r="231"/>
     <row r="232">
@@ -5051,155 +5557,181 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D232" s="2" t="n"/>
+      <c r="E232" s="2" t="n"/>
+      <c r="F232" s="2" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="A233" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="C233" t="n">
+      <c r="C233" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="D233" s="2" t="n"/>
+      <c r="E233" s="2" t="n"/>
+      <c r="F233" s="2" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="A234" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n"/>
+      <c r="B234" s="2" t="n"/>
       <c r="C234" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="2" t="inlineStr">
         <is>
           <t>Nível 1</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
-      <c r="C235" t="n">
+      <c r="C235" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n"/>
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>cd3858783</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="2" t="inlineStr">
         <is>
           <t>Nível 2</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
-      <c r="C236" t="n">
+      <c r="C236" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n"/>
+      <c r="F236" s="2" t="inlineStr">
         <is>
           <t>cd3861121</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="A237" s="2" t="inlineStr">
         <is>
           <t>Nível 2</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
-      <c r="C237" t="n">
+      <c r="C237" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n"/>
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>cd3863548</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>Nível 2</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
-      <c r="C238" t="n">
+      <c r="C238" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n"/>
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>cd3863682</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="A239" s="2" t="inlineStr">
         <is>
           <t>Nível 2</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
-      <c r="C239" t="n">
+      <c r="C239" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n"/>
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>cd3876623</t>
         </is>
@@ -5218,130 +5750,155 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D241" s="2" t="n"/>
+      <c r="E241" s="2" t="n"/>
+      <c r="F241" s="2" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="A242" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C242" t="n">
+      <c r="C242" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="D242" s="2" t="n"/>
+      <c r="E242" s="2" t="n"/>
+      <c r="F242" s="2" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n"/>
+      <c r="B243" s="2" t="n"/>
       <c r="C243" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="A244" s="2" t="inlineStr">
         <is>
           <t>Nível 2</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C244" t="n">
+      <c r="C244" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n"/>
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>cd382615</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="A245" s="2" t="inlineStr">
         <is>
           <t>Nível 2</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C245" t="n">
+      <c r="C245" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
+      <c r="D245" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n"/>
+      <c r="F245" s="2" t="inlineStr">
         <is>
           <t>cd389216</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="A246" s="2" t="inlineStr">
         <is>
           <t>Nível 1</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="C246" t="n">
+      <c r="C246" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n"/>
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>cd3815103</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
+      <c r="A247" s="2" t="inlineStr">
         <is>
           <t>Nível 1</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="C247" t="n">
+      <c r="C247" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
+      <c r="D247" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n"/>
+      <c r="F247" s="2" t="inlineStr">
         <is>
           <t>cd3829217</t>
         </is>
@@ -5360,21 +5917,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D249" s="2" t="n"/>
+      <c r="E249" s="2" t="n"/>
+      <c r="F249" s="2" t="n"/>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="A250" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C250" t="n">
+      <c r="C250" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D250" s="2" t="n"/>
+      <c r="E250" s="2" t="n"/>
+      <c r="F250" s="2" t="n"/>
     </row>
     <row r="251"/>
     <row r="252">
@@ -5389,21 +5952,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D252" s="2" t="n"/>
+      <c r="E252" s="2" t="n"/>
+      <c r="F252" s="2" t="n"/>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="A253" s="2" t="inlineStr">
         <is>
           <t>OAEs</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C253" t="n">
+      <c r="C253" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D253" s="2" t="n"/>
+      <c r="E253" s="2" t="n"/>
+      <c r="F253" s="2" t="n"/>
     </row>
     <row r="254"/>
     <row r="255">
@@ -5418,21 +5987,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D255" s="2" t="n"/>
+      <c r="E255" s="2" t="n"/>
+      <c r="F255" s="2" t="n"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="A256" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="C256" t="n">
+      <c r="C256" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D256" s="2" t="n"/>
+      <c r="E256" s="2" t="n"/>
+      <c r="F256" s="2" t="n"/>
     </row>
     <row r="257"/>
     <row r="258">
@@ -5447,21 +6022,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D258" s="2" t="n"/>
+      <c r="E258" s="2" t="n"/>
+      <c r="F258" s="2" t="n"/>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="A259" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C259" t="n">
+      <c r="C259" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D259" s="2" t="n"/>
+      <c r="E259" s="2" t="n"/>
+      <c r="F259" s="2" t="n"/>
     </row>
     <row r="260"/>
     <row r="261">
@@ -5476,55 +6057,77 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D261" s="2" t="n"/>
+      <c r="E261" s="2" t="n"/>
+      <c r="F261" s="2" t="n"/>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="A262" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C262" t="n">
+      <c r="C262" s="2" t="n">
         <v>14</v>
       </c>
+      <c r="D262" s="2" t="n"/>
+      <c r="E262" s="2" t="n"/>
+      <c r="F262" s="2" t="n"/>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="A263" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n"/>
+      <c r="B263" s="2" t="n"/>
       <c r="C263" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A264" s="2" t="inlineStr">
         <is>
           <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C264" t="n">
+      <c r="C264" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n"/>
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>cd3812790</t>
         </is>
@@ -5543,21 +6146,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D266" s="2" t="n"/>
+      <c r="E266" s="2" t="n"/>
+      <c r="F266" s="2" t="n"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="A267" s="2" t="inlineStr">
         <is>
           <t>Dispositivos de Segurança</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C267" t="n">
+      <c r="C267" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D267" s="2" t="n"/>
+      <c r="E267" s="2" t="n"/>
+      <c r="F267" s="2" t="n"/>
     </row>
     <row r="268"/>
     <row r="269">
@@ -5572,21 +6181,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D269" s="2" t="n"/>
+      <c r="E269" s="2" t="n"/>
+      <c r="F269" s="2" t="n"/>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="A270" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="C270" t="n">
+      <c r="C270" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D270" s="2" t="n"/>
+      <c r="E270" s="2" t="n"/>
+      <c r="F270" s="2" t="n"/>
     </row>
     <row r="271"/>
     <row r="272">
@@ -5601,330 +6216,363 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D272" s="2" t="n"/>
+      <c r="E272" s="2" t="n"/>
+      <c r="F272" s="2" t="n"/>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="A273" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C273" t="n">
+      <c r="C273" s="2" t="n">
         <v>40</v>
       </c>
+      <c r="D273" s="2" t="n"/>
+      <c r="E273" s="2" t="n"/>
+      <c r="F273" s="2" t="n"/>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
+      <c r="A274" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n"/>
+      <c r="B274" s="2" t="n"/>
       <c r="C274" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D274" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="A275" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C275" t="n">
+      <c r="C275" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
+      <c r="D275" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n"/>
+      <c r="F275" s="2" t="inlineStr">
         <is>
           <t>cd3818836</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="A276" s="2" t="inlineStr">
         <is>
           <t>BGMC</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C276" t="n">
+      <c r="C276" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
+      <c r="D276" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n"/>
+      <c r="F276" s="2" t="inlineStr">
         <is>
           <t>cd3820514</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="A277" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C277" t="n">
+      <c r="C277" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
+      <c r="D277" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n"/>
+      <c r="F277" s="2" t="inlineStr">
         <is>
           <t>cd3820515</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="A278" s="2" t="inlineStr">
         <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C278" t="n">
+      <c r="C278" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
+      <c r="D278" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n"/>
+      <c r="F278" s="2" t="inlineStr">
         <is>
           <t>cd3820552</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="A279" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C279" t="n">
+      <c r="C279" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
+      <c r="D279" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n"/>
+      <c r="F279" s="2" t="inlineStr">
         <is>
           <t>cd3820553</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="A280" s="2" t="inlineStr">
         <is>
           <t>LASTRO_PASSEIO</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C280" t="n">
+      <c r="C280" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
+      <c r="D280" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n"/>
+      <c r="F280" s="2" t="inlineStr">
         <is>
           <t>cd3835669</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="A281" s="2" t="inlineStr">
         <is>
           <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C281" t="n">
+      <c r="C281" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
+      <c r="D281" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n"/>
+      <c r="F281" s="2" t="inlineStr">
         <is>
           <t>cd3835670</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="2" t="inlineStr">
         <is>
           <t>B_CORRIDA</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C282" t="n">
+      <c r="C282" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
+      <c r="D282" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n"/>
+      <c r="F282" s="2" t="inlineStr">
         <is>
           <t>cd3840388</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="A283" s="2" t="inlineStr">
         <is>
           <t>CAUQ</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C283" t="n">
+      <c r="C283" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
+      <c r="D283" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n"/>
+      <c r="F283" s="2" t="inlineStr">
         <is>
           <t>cd3849154</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="A284" s="2" t="inlineStr">
         <is>
           <t>BGS</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C284" t="n">
+      <c r="C284" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
+      <c r="D284" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n"/>
+      <c r="F284" s="2" t="inlineStr">
         <is>
           <t>cd3851953</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
+      <c r="A285" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C285" t="n">
+      <c r="C285" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
+      <c r="D285" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n"/>
+      <c r="F285" s="2" t="inlineStr">
         <is>
           <t>cd3856843</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
+      <c r="A286" s="2" t="inlineStr">
         <is>
           <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
-      <c r="C286" t="n">
+      <c r="C286" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
+      <c r="D286" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n"/>
+      <c r="F286" s="2" t="inlineStr">
         <is>
           <t>cd3864584</t>
         </is>
@@ -5943,130 +6591,155 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D288" s="2" t="n"/>
+      <c r="E288" s="2" t="n"/>
+      <c r="F288" s="2" t="n"/>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="A289" s="2" t="inlineStr">
         <is>
           <t>Pavimentação</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B289" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C289" t="n">
+      <c r="C289" s="2" t="n">
         <v>16</v>
       </c>
+      <c r="D289" s="2" t="n"/>
+      <c r="E289" s="2" t="n"/>
+      <c r="F289" s="2" t="n"/>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="A290" s="4" t="inlineStr">
         <is>
           <t>Layers</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n"/>
+      <c r="B290" s="2" t="n"/>
       <c r="C290" s="5" t="inlineStr">
         <is>
           <t>Contagem</t>
         </is>
       </c>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="inlineStr">
+        <is>
+          <t>Justificativa</t>
+        </is>
+      </c>
+      <c r="F290" s="2" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
+      <c r="A291" s="2" t="inlineStr">
         <is>
           <t>CFT</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="2" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C291" t="n">
+      <c r="C291" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
+      <c r="D291" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n"/>
+      <c r="F291" s="2" t="inlineStr">
         <is>
           <t>cd3817440</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
+      <c r="A292" s="2" t="inlineStr">
         <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C292" t="n">
+      <c r="C292" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
+      <c r="D292" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n"/>
+      <c r="F292" s="2" t="inlineStr">
         <is>
           <t>cd3817967</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
+      <c r="A293" s="2" t="inlineStr">
         <is>
           <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C293" t="n">
+      <c r="C293" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
+      <c r="D293" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n"/>
+      <c r="F293" s="2" t="inlineStr">
         <is>
           <t>cd3862581</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
+      <c r="A294" s="2" t="inlineStr">
         <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B294" s="2" t="inlineStr">
         <is>
           <t>Base de CAD</t>
         </is>
       </c>
-      <c r="C294" t="n">
+      <c r="C294" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
+      <c r="D294" s="2" t="inlineStr">
+        <is>
+          <t>ativo</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n"/>
+      <c r="F294" s="2" t="inlineStr">
         <is>
           <t>cd3862582</t>
         </is>
@@ -6085,21 +6758,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D296" s="2" t="n"/>
+      <c r="E296" s="2" t="n"/>
+      <c r="F296" s="2" t="n"/>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
+      <c r="A297" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
+      <c r="B297" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="C297" t="n">
+      <c r="C297" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D297" s="2" t="n"/>
+      <c r="E297" s="2" t="n"/>
+      <c r="F297" s="2" t="n"/>
     </row>
     <row r="298"/>
     <row r="299">
@@ -6114,21 +6793,27 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D299" s="2" t="n"/>
+      <c r="E299" s="2" t="n"/>
+      <c r="F299" s="2" t="n"/>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
+      <c r="A300" s="2" t="inlineStr">
         <is>
           <t>Sinalização Vertical</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B300" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C300" t="n">
+      <c r="C300" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="D300" s="2" t="n"/>
+      <c r="E300" s="2" t="n"/>
+      <c r="F300" s="2" t="n"/>
     </row>
     <row r="301"/>
     <row r="302">
@@ -6143,22 +6828,29 @@
           <t>Soma</t>
         </is>
       </c>
+      <c r="D302" s="2" t="n"/>
+      <c r="E302" s="2" t="n"/>
+      <c r="F302" s="2" t="n"/>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
+      <c r="A303" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="2" t="inlineStr">
         <is>
           <t>Iluminação</t>
         </is>
       </c>
-      <c r="C303" t="n">
+      <c r="C303" s="2" t="n">
         <v>0</v>
       </c>
-    </row>
+      <c r="D303" s="2" t="n"/>
+      <c r="E303" s="2" t="n"/>
+      <c r="F303" s="2" t="n"/>
+    </row>
+    <row r="304"/>
   </sheetData>
   <mergeCells count="56">
     <mergeCell ref="A92:B92"/>
